--- a/pred_ohlcv/54_21/2019-10-30 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 RNT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>652561.3648000001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>572561.3648000001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>572561.3648000001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -652,7 +652,7 @@
         <v>550803.6777000001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>550803.6777000001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>550803.6777000001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>445097.8121000001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>445097.8121000001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>445097.8121000001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>445097.8121000001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>445097.8121000001</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>445097.8121000001</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-197250.1665999999</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1879657.8735</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1913392.7511</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1910412.7511</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1910412.7511</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-2145799.2879</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2156433.0392</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-2148266.6993</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-2186227.192100001</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-2186227.192100001</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-2190170.783600001</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 RNT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>652561.3648000001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>572561.3648000001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>572561.3648000001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -652,7 +652,7 @@
         <v>550803.6777000001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>550803.6777000001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>550803.6777000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>445097.8121000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>445097.8121000001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-197250.1665999999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-192250.1665999999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-174142.3418999999</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1879657.8735</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1913392.7511</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1910412.7511</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1910412.7511</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-2145799.2879</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2156433.0392</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-2148266.6993</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-2186227.192100001</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-2186227.192100001</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-2258884.971900001</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-2236022.931900001</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-2238462.931900001</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-2190170.783600001</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-2190839.930800001</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-2171164.420800001</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-2174717.221900001</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
